--- a/Social/crime/new-admission-to-msf-youth-homes (2002-2017).xlsx
+++ b/Social/crime/new-admission-to-msf-youth-homes (2002-2017).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\github stuff\BAVP\Social\crime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0C61AE-BF4D-4257-B56A-806FD613EFEB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905782A8-DAF3-4C39-A29C-FD790E047674}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="-6975" windowWidth="14400" windowHeight="7372" xr2:uid="{F2223013-A281-4C4C-9E7B-17FED3B3DCA0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{F2223013-A281-4C4C-9E7B-17FED3B3DCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>boys</t>
+    <t>F</t>
   </si>
   <si>
-    <t>girls</t>
+    <t>M</t>
   </si>
   <si>
-    <t>total</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -394,250 +397,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE27BFB9-3D9C-425A-9458-93131BAC6E3B}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D1" sqref="D1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2002</v>
       </c>
-      <c r="B2">
-        <v>304</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>81</v>
       </c>
-      <c r="D2">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3">
-        <v>442</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>134</v>
       </c>
-      <c r="D3">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2004</v>
       </c>
-      <c r="B4">
-        <v>350</v>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>117</v>
       </c>
-      <c r="D4">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2005</v>
       </c>
-      <c r="B5">
-        <v>371</v>
+      <c r="B5" t="s">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
-      <c r="D5">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2006</v>
       </c>
-      <c r="B6">
-        <v>346</v>
+      <c r="B6" t="s">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>121</v>
       </c>
-      <c r="D6">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2007</v>
       </c>
-      <c r="B7">
-        <v>362</v>
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>113</v>
       </c>
-      <c r="D7">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2008</v>
       </c>
-      <c r="B8">
-        <v>320</v>
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>83</v>
       </c>
-      <c r="D8">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9">
-        <v>360</v>
+      <c r="B9" t="s">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>92</v>
       </c>
-      <c r="D9">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2010</v>
       </c>
-      <c r="B10">
-        <v>279</v>
+      <c r="B10" t="s">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>81</v>
       </c>
-      <c r="D10">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2011</v>
       </c>
-      <c r="B11">
-        <v>260</v>
+      <c r="B11" t="s">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>68</v>
       </c>
-      <c r="D11">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2012</v>
       </c>
-      <c r="B12">
-        <v>184</v>
+      <c r="B12" t="s">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>64</v>
       </c>
-      <c r="D12">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B13">
-        <v>247</v>
+      <c r="B13" t="s">
+        <v>1</v>
       </c>
       <c r="C13">
         <v>94</v>
       </c>
-      <c r="D13">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2014</v>
       </c>
-      <c r="B14">
-        <v>236</v>
+      <c r="B14" t="s">
+        <v>1</v>
       </c>
       <c r="C14">
         <v>86</v>
       </c>
-      <c r="D14">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2015</v>
       </c>
-      <c r="B15">
-        <v>213</v>
+      <c r="B15" t="s">
+        <v>1</v>
       </c>
       <c r="C15">
         <v>81</v>
       </c>
-      <c r="D15">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2016</v>
       </c>
-      <c r="B16">
-        <v>151</v>
+      <c r="B16" t="s">
+        <v>1</v>
       </c>
       <c r="C16">
         <v>94</v>
       </c>
-      <c r="D16">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2017</v>
       </c>
-      <c r="B17">
-        <v>98</v>
+      <c r="B17" t="s">
+        <v>1</v>
       </c>
       <c r="C17">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>141</v>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2005</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2007</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>2008</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>2009</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>2010</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>2011</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>2014</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>2015</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>2016</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
